--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{F9438D96-2DF8-4ECD-A497-0CF8CC74E230}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -151,14 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果没有以上目录：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mkdir /usr/data/zookeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,13 +177,21 @@
   </si>
   <si>
     <t>leader:领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /usr/data/zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有以上目录,则建立以上目录：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +266,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -773,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,12 +949,12 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -965,10 +966,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -976,37 +977,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{F9438D96-2DF8-4ECD-A497-0CF8CC74E230}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B325C43-62A1-4DFD-9187-0B82906A6574}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="启动和停止" sheetId="2" r:id="rId2"/>
+    <sheet name="Docker建集群" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>hostname</t>
   </si>
@@ -185,6 +186,115 @@
   </si>
   <si>
     <t>如果没有以上目录,则建立以上目录：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用pip(python)方式进行安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install epel-release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install python-pip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install docker-compose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-compose version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认安装成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker pull zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim docker-compose.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-compose.yml内容如下:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个配置文件会告诉 Docker 分别运行三个 zookeeper 镜像, 并分别将本地的 2181, 2182, 2183 端口绑定到对应的容器的2181端口上.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOO_MY_ID 和 ZOO_SERVERS 是搭建 ZK 集群需要设置的两个环境变量, 其中 ZOO_MY_ID 表示 ZK 服务的 id, 它是1-255 之间的整数, 必须在集群中唯一. ZOO_SERVERS 是ZK 集群的主机列表.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 docker-compose.yml 当前目录下运行:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPOSE_PROJECT_NAME=zk_test docker-compose up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPOSE_PROJECT_NAME=zk_test docker-compose ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看运行状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意, 我们在 "docker-compose up" 和 "docker-compose ps" 前都添加了 COMPOSE_PROJECT_NAME=zk_test 这个环境变量, 这是为我们的 compose 工程起一个名字, 以免与其他的 compose 混淆.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it zoo1 /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ln -sf bash /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh /zookeeper-3.4.13/bin/zkServer.sh status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo2, zoo3以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode 有一个leader, 两个follewer. 表示集群搭建成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,9 +344,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -501,6 +614,580 @@
         <a:xfrm>
           <a:off x="0" y="2533650"/>
           <a:ext cx="6400000" cy="1038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5899692" cy="5603585"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="2409825"/>
+          <a:ext cx="5899692" cy="5603585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>version: '2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>services:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    zoo1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        image: zookeeper</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        restart: always</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        container_name: zoo1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            - "2181:2181"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_MY_ID: 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    zoo2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        image: zookeeper</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        restart: always</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        container_name: zoo2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            - "2182:2181"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_MY_ID: 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    zoo3:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        image: zookeeper</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        restart: always</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        container_name: zoo3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            - "2183:2181"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_MY_ID: 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389956</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9953625"/>
+          <a:ext cx="4552381" cy="780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +1657,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,4 +1702,149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BFFC26-8785-4066-A39F-3DF894EF171B}">
+  <dimension ref="A1:O56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B325C43-62A1-4DFD-9187-0B82906A6574}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="启动和停止" sheetId="2" r:id="rId2"/>
     <sheet name="Docker建集群" sheetId="3" r:id="rId3"/>
+    <sheet name="节点" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>hostname</t>
   </si>
@@ -270,10 +270,6 @@
   </si>
   <si>
     <t>查看状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker exec -it zoo1 /bin/sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,14 +291,130 @@
   </si>
   <si>
     <t>Mode 有一个leader, 两个follewer. 表示集群搭建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker exec -it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zoo1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /bin/sh</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在zookeeper/bin目录下执行命令，连接zk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create [-s] [-e] path data acl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接后执行命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：create /node1 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh zkCli.sh -server localhost:2181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set path data [version]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：set /node1 333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete path [version]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：delete /node1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个结点的最大数据量有一个上限是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1M</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +424,23 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -344,12 +473,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,7 +509,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -415,7 +545,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -459,7 +589,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -503,7 +633,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -552,7 +682,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +726,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -640,7 +770,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,7 +1300,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -1653,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1705,11 +1835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BFFC26-8785-4066-A39F-3DF894EF171B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1813,32 +1943,32 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1847,4 +1977,86 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="启动和停止" sheetId="2" r:id="rId2"/>
     <sheet name="Docker建集群" sheetId="3" r:id="rId3"/>
     <sheet name="节点" sheetId="4" r:id="rId4"/>
+    <sheet name="ACL" sheetId="5" r:id="rId5"/>
+    <sheet name="服务监控" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>hostname</t>
   </si>
@@ -294,34 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">docker exec -it </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zoo1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /bin/sh</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在zookeeper/bin目录下执行命令，连接zk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +317,6 @@
   </si>
   <si>
     <t>例：create /node1 123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh zkCli.sh -server localhost:2181</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,6 +377,78 @@
       </rPr>
       <t>1M</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker exec -it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zoo1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /bin/sh</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：addauth digest root:root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加认证(账户密码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setAcl path acl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdrwa见右表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：setAcl / auth:root:root:cdrwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh zkCli.sh -server localhost:2181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addauth digest username:password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh zkCli.sh -server localhost:2181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听服务器本身，而不是里面的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +587,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -589,7 +631,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -633,7 +675,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +724,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -726,7 +768,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -770,7 +812,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1342,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,6 +1368,462 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5079339" cy="1392176"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="1038225"/>
+          <a:ext cx="5079339" cy="1392176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>permissions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(c): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建权限，可以在在当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>node</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>下创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>child node</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DELETE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(d): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除权限，可以删除当前的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>node</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>READ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(r): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读权限，可以获取当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>node</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的数据，可以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>node</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所有的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>child nodes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WRITE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(w): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>写权限，可以向当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>node</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>写数据</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(a): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理权限，可以设置当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>node</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>permission</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1839,7 +2337,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,7 +2441,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
@@ -1983,76 +2481,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
         <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="节点" sheetId="4" r:id="rId4"/>
     <sheet name="ACL" sheetId="5" r:id="rId5"/>
     <sheet name="服务监控" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -587,7 +588,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,7 +632,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,7 +676,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -724,7 +725,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,7 +769,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -812,7 +813,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -864,7 +865,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>version: '2'</a:t>
+            <a:t>version: '2's</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1342,7 +1343,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2563,7 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -2650,4 +2651,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A80AC5A-61BC-4591-BFA2-5103322D9A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,6 @@
     <sheet name="节点" sheetId="4" r:id="rId4"/>
     <sheet name="ACL" sheetId="5" r:id="rId5"/>
     <sheet name="服务监控" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>hostname</t>
   </si>
@@ -441,10 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sh zkCli.sh -server localhost:2181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态监听</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,8 +452,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +485,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -516,13 +519,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,7 +556,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -588,7 +592,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8415ECC0-0930-4DE9-9256-561C7B893D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -632,7 +636,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1837DB1-FCC4-4230-9039-4FB2DC41C78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -676,7 +680,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB20AA-2661-4D3C-9C8D-2010B76DC4B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -725,7 +729,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1CB3C7-F234-428D-A272-3C58AA84021E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +773,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093236C7-8591-4CFC-9721-DF55582E8C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -813,7 +817,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -865,7 +869,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>version: '2's</a:t>
+            <a:t>version: '2'</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1343,7 +1347,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7DF14-B24F-4142-AD70-B78B6F903275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1388,13 @@
     <xdr:ext cx="5079339" cy="1392176"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2090,7 +2100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -2282,11 +2292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2334,11 +2344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2413,7 +2423,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="O16" t="s">
@@ -2479,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2495,7 +2505,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
@@ -2561,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2628,10 +2638,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2639,32 +2649,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A80AC5A-61BC-4591-BFA2-5103322D9A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9F9CF-B515-4718-BAF4-53341BD1DB92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,531 +804,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5899692" cy="5603585"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47423990-2BB4-49B4-8CCE-196D897CC177}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="2409825"/>
-          <a:ext cx="5899692" cy="5603585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>version: '2'</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>services:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    zoo1:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        image: zookeeper</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        restart: always</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        container_name: zoo1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        ports:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            - "2181:2181"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        environment:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            ZOO_MY_ID: 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    zoo2:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        image: zookeeper</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        restart: always</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        container_name: zoo2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        ports:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            - "2182:2181"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        environment:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            ZOO_MY_ID: 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    zoo3:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        image: zookeeper</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        restart: always</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        container_name: zoo3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        ports:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            - "2183:2181"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        environment:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            ZOO_MY_ID: 3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1373,6 +848,517 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5899692" cy="5431359"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D2B61E-9B65-4496-B588-AED82C40511B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="2838450"/>
+          <a:ext cx="5899692" cy="5431359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>version: '2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>services:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    zoo1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        image: zookeeper</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        restart: always</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        container_name: 'zoo1'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            - "2181:2181"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_MY_ID: 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    zoo2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        image: zookeeper</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        restart: always</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        container_name: 'zoo2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            - "2182:2181"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_MY_ID: 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    zoo3:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        image: zookeeper</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        restart: always</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        container_name: 'zoo3'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            - "2183:2181"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_MY_ID: 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ZOO_SERVERS: server.1=zoo1:2888:3888 server.2=zoo2:2888:3888 server.3=zoo3:2888:3888</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2347,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Zookeeper指南.xlsx
+++ b/Zookeeper指南.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9F9CF-B515-4718-BAF4-53341BD1DB92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD66CE18-23EF-4065-81E9-B746B8B4B408}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="节点" sheetId="4" r:id="rId4"/>
     <sheet name="ACL" sheetId="5" r:id="rId5"/>
     <sheet name="服务监控" sheetId="6" r:id="rId6"/>
+    <sheet name="选举机制" sheetId="7" r:id="rId7"/>
+    <sheet name="分布式锁" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>hostname</t>
   </si>
@@ -448,12 +450,24 @@
     <t>监听服务器本身，而不是里面的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.cnblogs.com/wlwl/p/10715065.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kongmin_123/article/details/82081953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +506,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -516,10 +538,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -527,9 +550,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2333,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -2561,7 +2586,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2647,4 +2672,63 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1EA406-07F0-4DCF-B00C-41958A5CE4BD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F9C68ED6-E24F-416D-A521-70369A6FF399}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9CA2DA-4AC3-4C47-8DA2-108F3D400B4B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7F666A0F-C377-46C6-B308-1994ABDD156C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>